--- a/artfynd/A 3029-2023.xlsx
+++ b/artfynd/A 3029-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1981271</v>
+        <v>1981272</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514242.811294396</v>
+        <v>514180.9610376132</v>
       </c>
       <c r="R2" t="n">
-        <v>6992786.044070287</v>
+        <v>6992913.628829149</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1856295</v>
+        <v>1856296</v>
       </c>
       <c r="B3" t="n">
         <v>77506</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514307.8193323846</v>
+        <v>514180.9610376132</v>
       </c>
       <c r="R3" t="n">
-        <v>6992767.287052128</v>
+        <v>6992913.628829149</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1981272</v>
+        <v>1981271</v>
       </c>
       <c r="B4" t="n">
         <v>78569</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514180.9610376132</v>
+        <v>514242.811294396</v>
       </c>
       <c r="R4" t="n">
-        <v>6992913.628829149</v>
+        <v>6992786.044070287</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1856296</v>
+        <v>1856295</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514180.9610376132</v>
+        <v>514307.8193323846</v>
       </c>
       <c r="R5" t="n">
-        <v>6992913.628829149</v>
+        <v>6992767.287052128</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>

--- a/artfynd/A 3029-2023.xlsx
+++ b/artfynd/A 3029-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1981272</v>
+        <v>1981271</v>
       </c>
       <c r="B2" t="n">
         <v>78569</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>514180.9610376132</v>
+        <v>514242.811294396</v>
       </c>
       <c r="R2" t="n">
-        <v>6992913.628829149</v>
+        <v>6992786.044070287</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1856296</v>
+        <v>1856295</v>
       </c>
       <c r="B3" t="n">
         <v>77506</v>
@@ -836,7 +836,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>514180.9610376132</v>
+        <v>514307.8193323846</v>
       </c>
       <c r="R3" t="n">
-        <v>6992913.628829149</v>
+        <v>6992767.287052128</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1981271</v>
+        <v>1981272</v>
       </c>
       <c r="B4" t="n">
         <v>78569</v>
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>514242.811294396</v>
+        <v>514180.9610376132</v>
       </c>
       <c r="R4" t="n">
-        <v>6992786.044070287</v>
+        <v>6992913.628829149</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1856295</v>
+        <v>1856296</v>
       </c>
       <c r="B5" t="n">
         <v>77506</v>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1092,10 +1092,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>514307.8193323846</v>
+        <v>514180.9610376132</v>
       </c>
       <c r="R5" t="n">
-        <v>6992767.287052128</v>
+        <v>6992913.628829149</v>
       </c>
       <c r="S5" t="n">
         <v>5</v>
